--- a/Notification List.xlsx
+++ b/Notification List.xlsx
@@ -1,84 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arularas\PycharmProjects\excelToWhatsapp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440FB9E7-F639-425A-95CE-A075410BE86C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28920" windowHeight="15405" xr2:uid="{885F96AF-2EF1-47D9-B0E2-9BD4EC605E33}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="525" yWindow="405" windowWidth="32175" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Names" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Templates" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Data Types" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Ubhayam myEvent</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Notified</t>
-  </si>
-  <si>
-    <t>Arul</t>
-  </si>
-  <si>
-    <t>Sachu</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="[$-14809]d/m/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-10409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.5999938962981048"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,29 +59,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-10409]h:mm\ AM/PM;@"/>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-14809]d/m/yyyy;@"/>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H22" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:H22"/>
+  <sortState ref="A2:G3">
+    <sortCondition ref="A1:A22"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Event Type"/>
+    <tableColumn id="2" name="Event Name"/>
+    <tableColumn id="3" name="Name"/>
+    <tableColumn id="4" name="Phone No" dataDxfId="3"/>
+    <tableColumn id="5" name="Date" dataDxfId="2"/>
+    <tableColumn id="8" name="Time" dataDxfId="1"/>
+    <tableColumn id="7" name="Notify" dataDxfId="0"/>
+    <tableColumn id="10" name="Last Notification"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,83 +504,292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B79A56-1CE9-42A9-A7A2-5A1EBE7C4DD5}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col width="14.28515625" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="2" max="2"/>
+    <col width="23.5703125" customWidth="1" min="3" max="3"/>
+    <col width="11.85546875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="10.42578125" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
+    <col width="17.85546875" customWidth="1" style="7" min="6" max="6"/>
+    <col width="17.42578125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="18.5703125" bestFit="1" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Event Type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Event Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Phone No</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Notify</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Last Notification</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ubayam</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mahalakshmi Kuberayagam</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Arul</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>91554553</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="6" t="n">
         <v>44770</v>
       </c>
-      <c r="E2" s="2">
-        <v>800</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
+      <c r="F2" s="7" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>07/08/2022 16:11</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ubayam</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Thiruvona Nachathiram</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sachu</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
         <v>91850306</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="6" t="n">
         <v>44770</v>
       </c>
-      <c r="E3" s="2">
-        <v>800</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
+      <c r="F3" s="7" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H3" s="8" t="inlineStr">
+        <is>
+          <t>07/08/2022 16:11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="F1:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="time">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="14.85546875" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="34.42578125" customWidth="1" min="2" max="2"/>
+    <col width="46.42578125" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Event Type</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Event Template</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Event Template Example</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="141" customHeight="1" thickTop="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Regular Ubayam</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Sri Srinivasa Perumal Temple :
+Reminder
+[EventType] : [EventName]
+Date : [Date]
+Time : [Time]
+Please do not reply to this message.
+For any queruies, please call the 
+Temple Office at 6298 5771</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Sri Srinivasa Perumal Temple :
+Reminder
+Ubayam : Mahalakshmi Kuberayagam
+Date : 21 May 2022
+Time : 8.30 am
+Please do not reply to this message.
+For any queruies, please call the 
+Temple Office at 6298 5771</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="14.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="24.42578125" bestFit="1" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Event Types</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Event Name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Event Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ubayam</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ubayam</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mahalakshmi Kuberayagam</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Thiruvona Nachathiram</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Notification List.xlsx
+++ b/Notification List.xlsx
@@ -1,52 +1,169 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keert\source\repos\excelToWhatsapp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6403A13F-A417-4398-BE6D-160E1F598FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="525" yWindow="405" windowWidth="32175" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1455" yWindow="3825" windowWidth="32175" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Names" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Templates" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Data Types" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Names" sheetId="1" r:id="rId1"/>
+    <sheet name="Templates" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Types" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+  <si>
+    <t>Event Type</t>
+  </si>
+  <si>
+    <t>Event Name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Phone No</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Notify</t>
+  </si>
+  <si>
+    <t>Last Notification</t>
+  </si>
+  <si>
+    <t>Ubayam</t>
+  </si>
+  <si>
+    <t>Mahalakshmi Kuberayagam</t>
+  </si>
+  <si>
+    <t>Arul</t>
+  </si>
+  <si>
+    <t>Ubaya</t>
+  </si>
+  <si>
+    <t>Thiruvona Nachathiram</t>
+  </si>
+  <si>
+    <t>Sachu</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Event Template</t>
+  </si>
+  <si>
+    <t>Event Template Example</t>
+  </si>
+  <si>
+    <t>Sri Srinivasa Perumal Temple :
+Reminder
+[EventType] : [EventName]
+Date : [Date]
+Time : [Time]
+Please do not reply to this message.
+For any queruies, please call the 
+Temple Office at 6298 5771</t>
+  </si>
+  <si>
+    <t>Sri Srinivasa Perumal Temple :
+Reminder
+Ubayam : Mahalakshmi Kuberayagam
+Date : 21 May 2022
+Time : 8.30 am
+Please do not reply to this message.
+For any queruies, please call the 
+Temple Office at 6298 5771</t>
+  </si>
+  <si>
+    <t>Sri Srinivasa Perumal Temple :
+0.0
+Reminder
+[EventType] : [EventName]
+Date : [Date]
+Time : [Time]
+Please do not reply to this message.
+For any queruies, please call the 
+Temple Office at 6298 5771</t>
+  </si>
+  <si>
+    <t>Sri Srinivasa Perumal Temple :
+Reminder
+Ubaya : Mahalakshmi Kuberayagam
+Date : 21 May 2022
+Time : 8.30 am
+Please do not reply to this message.
+For any queruies, please call the 
+Temple Office at 6298 5771</t>
+  </si>
+  <si>
+    <t>Event Types</t>
+  </si>
+  <si>
+    <t>First Message</t>
+  </si>
+  <si>
+    <t>Sri Srinivasa Perumal Temple:
+Dear SSPT devotee,
+We have embarked on a new initiative to inform you via WhatsApp on key SSPT specific events and your ubayams &amp; services at the temple. This is one our efforts to improve our engagement with you. We seek you understanding while we finetune the initiative. Looking forward to your support and constructive feedback.
+Please do not reply to this message.
+For any queries, please call the
+Temple Office at 6298 5771</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-14809]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-10409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981048"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -75,27 +192,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,92 +234,32 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H22" headerRowCount="1" totalsRowShown="0">
-  <autoFilter ref="A1:H22"/>
-  <sortState ref="A2:G3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H22" totalsRowShown="0">
+  <autoFilter ref="A1:H22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
     <sortCondition ref="A1:A22"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Event Type"/>
-    <tableColumn id="2" name="Event Name"/>
-    <tableColumn id="3" name="Name"/>
-    <tableColumn id="4" name="Phone No" dataDxfId="3"/>
-    <tableColumn id="5" name="Date" dataDxfId="2"/>
-    <tableColumn id="8" name="Time" dataDxfId="1"/>
-    <tableColumn id="7" name="Notify" dataDxfId="0"/>
-    <tableColumn id="10" name="Last Notification"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Event Type"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Event Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Phone No" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Time" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Notify" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Last Notification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -504,152 +561,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="14.28515625" customWidth="1" min="1" max="1"/>
-    <col width="33" customWidth="1" min="2" max="2"/>
-    <col width="23.5703125" customWidth="1" min="3" max="3"/>
-    <col width="11.85546875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="10.42578125" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
-    <col width="17.85546875" customWidth="1" style="7" min="6" max="6"/>
-    <col width="17.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="18.5703125" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Event Type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Event Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Phone No</t>
-        </is>
-      </c>
-      <c r="E1" s="6" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="F1" s="7" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Notify</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Last Notification</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ubayam</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Mahalakshmi Kuberayagam</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Arul</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
         <v>91554553</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>44770</v>
       </c>
-      <c r="F2" s="7" t="n">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="H2" s="8" t="inlineStr">
-        <is>
-          <t>07/08/2022 16:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ubayam</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Thiruvona Nachathiram</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sachu</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="F2" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
         <v>91850306</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>44770</v>
       </c>
-      <c r="F3" s="7" t="n">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H3" s="8" t="inlineStr">
-        <is>
-          <t>07/08/2022 16:11</t>
-        </is>
-      </c>
+      <c r="F3" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="F1:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="time">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <ignoredErrors>
+    <ignoredError sqref="F1" listDataValidation="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -657,136 +673,108 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="14.85546875" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="34.42578125" customWidth="1" min="2" max="2"/>
-    <col width="46.42578125" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="93.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>Event Type</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>Event Template</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
-        <is>
-          <t>Event Template Example</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="141" customHeight="1" thickTop="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Regular Ubayam</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Sri Srinivasa Perumal Temple :
-Reminder
-[EventType] : [EventName]
-Date : [Date]
-Time : [Time]
-Please do not reply to this message.
-For any queruies, please call the 
-Temple Office at 6298 5771</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Sri Srinivasa Perumal Temple :
-Reminder
-Ubayam : Mahalakshmi Kuberayagam
-Date : 21 May 2022
-Time : 8.30 am
-Please do not reply to this message.
-For any queruies, please call the 
-Temple Office at 6298 5771</t>
-        </is>
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="141" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="14.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="24.42578125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Event Types</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Event Name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Event Name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ubayam</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ubayam</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Mahalakshmi Kuberayagam</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Thiruvona Nachathiram</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Notification List.xlsx
+++ b/Notification List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keert\source\repos\excelToWhatsapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arul/PycharmProjects/excelToWhatsapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6403A13F-A417-4398-BE6D-160E1F598FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378BE7DA-ECAC-4147-BFBD-5717F9765A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="3825" windowWidth="32175" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="3820" windowWidth="39840" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Names" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Event Type</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Event Template Example</t>
+  </si>
+  <si>
+    <t>Event Types</t>
+  </si>
+  <si>
+    <t>First Message</t>
   </si>
   <si>
     <t>Sri Srinivasa Perumal Temple :
@@ -81,7 +87,7 @@
 Date : [Date]
 Time : [Time]
 Please do not reply to this message.
-For any queruies, please call the 
+For any queries, please call the 
 Temple Office at 6298 5771</t>
   </si>
   <si>
@@ -91,40 +97,15 @@
 Date : 21 May 2022
 Time : 8.30 am
 Please do not reply to this message.
-For any queruies, please call the 
+For any queries, please call the 
 Temple Office at 6298 5771</t>
-  </si>
-  <si>
-    <t>Sri Srinivasa Perumal Temple :
-0.0
-Reminder
-[EventType] : [EventName]
-Date : [Date]
-Time : [Time]
-Please do not reply to this message.
-For any queruies, please call the 
-Temple Office at 6298 5771</t>
-  </si>
-  <si>
-    <t>Sri Srinivasa Perumal Temple :
-Reminder
-Ubaya : Mahalakshmi Kuberayagam
-Date : 21 May 2022
-Time : 8.30 am
-Please do not reply to this message.
-For any queruies, please call the 
-Temple Office at 6298 5771</t>
-  </si>
-  <si>
-    <t>Event Types</t>
-  </si>
-  <si>
-    <t>First Message</t>
   </si>
   <si>
     <t>Sri Srinivasa Perumal Temple:
 Dear SSPT devotee,
-We have embarked on a new initiative to inform you via WhatsApp on key SSPT specific events and your ubayams &amp; services at the temple. This is one our efforts to improve our engagement with you. We seek you understanding while we finetune the initiative. Looking forward to your support and constructive feedback.
+We have embarked on a new initiative to inform you via WhatsApp on key SSPT specific events and your ubayams &amp; services at the temple. 
+This is one our efforts to improve our engagement with you. We seek you understanding while we finetune the initiative. 
+Looking forward to your support and constructive feedback.
 Please do not reply to this message.
 For any queries, please call the
 Temple Office at 6298 5771</t>
@@ -568,19 +549,19 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -630,7 +611,7 @@
       </c>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -674,21 +655,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
-    <col min="4" max="4" width="93.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
+    <col min="4" max="4" width="93.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -699,34 +680,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="141" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="141" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="238" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="204" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -739,20 +709,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -761,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -772,7 +742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D3" t="s">
         <v>12</v>
       </c>

--- a/Notification List.xlsx
+++ b/Notification List.xlsx
@@ -1,169 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keert\source\repos\excelToWhatsapp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6403A13F-A417-4398-BE6D-160E1F598FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="3825" windowWidth="32175" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1455" yWindow="3825" windowWidth="32175" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Names" sheetId="1" r:id="rId1"/>
-    <sheet name="Templates" sheetId="2" r:id="rId2"/>
-    <sheet name="Data Types" sheetId="3" r:id="rId3"/>
+    <sheet name="Names" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Templates" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Data Types" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
-  <si>
-    <t>Event Type</t>
-  </si>
-  <si>
-    <t>Event Name</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Phone No</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Notify</t>
-  </si>
-  <si>
-    <t>Last Notification</t>
-  </si>
-  <si>
-    <t>Ubayam</t>
-  </si>
-  <si>
-    <t>Mahalakshmi Kuberayagam</t>
-  </si>
-  <si>
-    <t>Arul</t>
-  </si>
-  <si>
-    <t>Ubaya</t>
-  </si>
-  <si>
-    <t>Thiruvona Nachathiram</t>
-  </si>
-  <si>
-    <t>Sachu</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Event Template</t>
-  </si>
-  <si>
-    <t>Event Template Example</t>
-  </si>
-  <si>
-    <t>Sri Srinivasa Perumal Temple :
-Reminder
-[EventType] : [EventName]
-Date : [Date]
-Time : [Time]
-Please do not reply to this message.
-For any queruies, please call the 
-Temple Office at 6298 5771</t>
-  </si>
-  <si>
-    <t>Sri Srinivasa Perumal Temple :
-Reminder
-Ubayam : Mahalakshmi Kuberayagam
-Date : 21 May 2022
-Time : 8.30 am
-Please do not reply to this message.
-For any queruies, please call the 
-Temple Office at 6298 5771</t>
-  </si>
-  <si>
-    <t>Sri Srinivasa Perumal Temple :
-0.0
-Reminder
-[EventType] : [EventName]
-Date : [Date]
-Time : [Time]
-Please do not reply to this message.
-For any queruies, please call the 
-Temple Office at 6298 5771</t>
-  </si>
-  <si>
-    <t>Sri Srinivasa Perumal Temple :
-Reminder
-Ubaya : Mahalakshmi Kuberayagam
-Date : 21 May 2022
-Time : 8.30 am
-Please do not reply to this message.
-For any queruies, please call the 
-Temple Office at 6298 5771</t>
-  </si>
-  <si>
-    <t>Event Types</t>
-  </si>
-  <si>
-    <t>First Message</t>
-  </si>
-  <si>
-    <t>Sri Srinivasa Perumal Temple:
-Dear SSPT devotee,
-We have embarked on a new initiative to inform you via WhatsApp on key SSPT specific events and your ubayams &amp; services at the temple. This is one our efforts to improve our engagement with you. We seek you understanding while we finetune the initiative. Looking forward to your support and constructive feedback.
-Please do not reply to this message.
-For any queries, please call the
-Temple Office at 6298 5771</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-14809]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-10409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,27 +75,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -234,32 +117,92 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H22" totalsRowShown="0">
-  <autoFilter ref="A1:H22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H22" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:H22"/>
+  <sortState ref="A2:G3">
     <sortCondition ref="A1:A22"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Event Type"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Event Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Phone No" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Time" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Notify" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Last Notification"/>
+    <tableColumn id="1" name="Event Type"/>
+    <tableColumn id="2" name="Event Name"/>
+    <tableColumn id="3" name="Name"/>
+    <tableColumn id="4" name="Phone No" dataDxfId="3"/>
+    <tableColumn id="5" name="Date" dataDxfId="2"/>
+    <tableColumn id="8" name="Time" dataDxfId="1"/>
+    <tableColumn id="7" name="Notify" dataDxfId="0"/>
+    <tableColumn id="10" name="Last Notification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -561,111 +504,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col width="14.28515625" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="2" max="2"/>
+    <col width="23.5703125" customWidth="1" min="3" max="3"/>
+    <col width="11.85546875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="10.42578125" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
+    <col width="17.85546875" customWidth="1" style="7" min="6" max="6"/>
+    <col width="17.42578125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="18.5703125" bestFit="1" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Event Type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Event Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Phone No</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Notify</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Last Notification</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ubayam</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mahalakshmi Kuberayagam</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Arul</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>91554553</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="6" t="n">
         <v>44770</v>
       </c>
-      <c r="F2" s="7">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="F2" s="7" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>19/09/2022 20:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ubaya</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Thiruvona Nachathiram</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sachu</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
         <v>91850306</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="6" t="n">
         <v>44770</v>
       </c>
-      <c r="F3" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="8"/>
+      <c r="F3" s="7" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H3" s="8" t="inlineStr">
+        <is>
+          <t>19/09/2022 20:51</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation sqref="F1:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="time">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <ignoredErrors>
-    <ignoredError sqref="F1" listDataValidation="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -673,108 +657,186 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
-    <col min="4" max="4" width="93.28515625" customWidth="1"/>
+    <col width="14.85546875" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="34.42578125" customWidth="1" min="2" max="2"/>
+    <col width="46.42578125" customWidth="1" min="3" max="3"/>
+    <col width="93.28515625" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="141" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="204" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
+    <row r="1" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Event Type</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Event Template</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Event Template Example</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="141" customHeight="1" thickTop="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Ubayam</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Sri Srinivasa Perumal Temple :
+Reminder
+[EventType] : [EventName]
+Date : [Date]
+Time : [Time]
+Please do not reply to this message.
+For any queruies, please call the 
+Temple Office at 6298 5771</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Sri Srinivasa Perumal Temple :
+Reminder
+Ubayam : Mahalakshmi Kuberayagam
+Date : 21 May 2022
+Time : 8.30 am
+Please do not reply to this message.
+For any queruies, please call the 
+Temple Office at 6298 5771</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="140.25" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Ubaya</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Sri Srinivasa Perumal Temple :
+0.0
+Reminder
+[EventType] : [EventName]
+Date : [Date]
+Time : [Time]
+Please do not reply to this message.
+For any queruies, please call the 
+Temple Office at 6298 5771</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Sri Srinivasa Perumal Temple :
+Reminder
+Ubaya : Mahalakshmi Kuberayagam
+Date : 21 May 2022
+Time : 8.30 am
+Please do not reply to this message.
+For any queruies, please call the 
+Temple Office at 6298 5771</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="204" customHeight="1">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>First Message</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Sri Srinivasa Perumal Temple:
+Dear SSPT devotee,
+We have embarked on a new initiative to inform you via WhatsApp on key SSPT specific events and your ubayams &amp; services at the temple. This is one our efforts to improve our engagement with you. We seek you understanding while we finetune the initiative. Looking forward to your support and constructive feedback.
+Please do not reply to this message.
+For any queries, please call the
+Temple Office at 6298 5771</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col width="14.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="24.42578125" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>12</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Event Types</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Event Name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Event Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ubayam</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ubayam</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mahalakshmi Kuberayagam</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Thiruvona Nachathiram</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Notification List.xlsx
+++ b/Notification List.xlsx
@@ -1,52 +1,134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arul/Documents/GitHub/excelToWhatsapp/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E64EE5-C7A7-344E-BFF8-531F13A7F049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="525" yWindow="405" windowWidth="32175" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="19500" yWindow="5860" windowWidth="32180" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Names" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Templates" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Data Types" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Names" sheetId="1" r:id="rId1"/>
+    <sheet name="Templates" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Types" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+  <si>
+    <t>Event Type</t>
+  </si>
+  <si>
+    <t>Event Name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Phone No</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Notify</t>
+  </si>
+  <si>
+    <t>Last Notification</t>
+  </si>
+  <si>
+    <t>Ubayam</t>
+  </si>
+  <si>
+    <t>Mahalakshmi Kuberayagam</t>
+  </si>
+  <si>
+    <t>Arul</t>
+  </si>
+  <si>
+    <t>Thiruvona Nachathiram</t>
+  </si>
+  <si>
+    <t>Sachu</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Event Template</t>
+  </si>
+  <si>
+    <t>Event Template Example</t>
+  </si>
+  <si>
+    <t>Sri Srinivasa Perumal Temple :
+Reminder
+Ubayam : Mahalakshmi Kuberayagam
+Date : 21 May 2022
+Time : 8.30 am
+Please do not reply to this message.
+For any queruies, please call the 
+Temple Office at 6298 5771</t>
+  </si>
+  <si>
+    <t>Event Types</t>
+  </si>
+  <si>
+    <t>Sri Srinivasa Perumal Temple :
+Reminder
+[EventType] : [EventName]
+Date : [Date]
+Time : [Time]
+Please do not reply to this message.
+For any queries, please call the 
+Temple Office at 6298 5771</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-14809]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-10409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981048"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -75,27 +157,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,92 +199,32 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H22" headerRowCount="1" totalsRowShown="0">
-  <autoFilter ref="A1:H22"/>
-  <sortState ref="A2:G3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H22" totalsRowShown="0">
+  <autoFilter ref="A1:H22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
     <sortCondition ref="A1:A22"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Event Type"/>
-    <tableColumn id="2" name="Event Name"/>
-    <tableColumn id="3" name="Name"/>
-    <tableColumn id="4" name="Phone No" dataDxfId="3"/>
-    <tableColumn id="5" name="Date" dataDxfId="2"/>
-    <tableColumn id="8" name="Time" dataDxfId="1"/>
-    <tableColumn id="7" name="Notify" dataDxfId="0"/>
-    <tableColumn id="10" name="Last Notification"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Event Type"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Event Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Phone No" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Time" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Notify" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Last Notification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -504,146 +526,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col width="14.28515625" customWidth="1" min="1" max="1"/>
-    <col width="33" customWidth="1" min="2" max="2"/>
-    <col width="23.5703125" customWidth="1" min="3" max="3"/>
-    <col width="11.85546875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="10.42578125" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
-    <col width="17.85546875" customWidth="1" style="7" min="6" max="6"/>
-    <col width="17.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="18.5703125" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Event Type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Event Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Phone No</t>
-        </is>
-      </c>
-      <c r="E1" s="6" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="F1" s="7" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Notify</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Last Notification</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ubayam</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Mahalakshmi Kuberayagam</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Arul</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
         <v>91554553</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>44770</v>
       </c>
-      <c r="F2" s="7" t="n">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="H2" s="8" t="inlineStr">
-        <is>
-          <t>07/08/2022 16:11</t>
-        </is>
-      </c>
+      <c r="F2" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="8"/>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ubayam</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Thiruvona Nachathiram</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sachu</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
         <v>91850306</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>44770</v>
       </c>
-      <c r="F3" s="7" t="n">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H3" s="8" t="inlineStr">
-        <is>
-          <t>07/08/2022 16:11</t>
-        </is>
-      </c>
+      <c r="F3" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="H3" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="F1:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="time">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
@@ -657,70 +632,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col width="14.85546875" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="34.42578125" customWidth="1" min="2" max="2"/>
-    <col width="46.42578125" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>Event Type</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>Event Template</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
-        <is>
-          <t>Event Template Example</t>
-        </is>
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" ht="141" customHeight="1" thickTop="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Regular Ubayam</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Sri Srinivasa Perumal Temple :
-Reminder
-[EventType] : [EventName]
-Date : [Date]
-Time : [Time]
-Please do not reply to this message.
-For any queruies, please call the 
-Temple Office at 6298 5771</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Sri Srinivasa Perumal Temple :
-Reminder
-Ubayam : Mahalakshmi Kuberayagam
-Date : 21 May 2022
-Time : 8.30 am
-Please do not reply to this message.
-For any queruies, please call the 
-Temple Office at 6298 5771</t>
-        </is>
+    <row r="2" spans="1:3" ht="141" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -730,63 +675,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col width="14.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="24.42578125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Event Types</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Event Name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Event Name</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ubayam</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ubayam</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Mahalakshmi Kuberayagam</t>
-        </is>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Thiruvona Nachathiram</t>
-        </is>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
